--- a/biology/Zoologie/Arachnura_higginsi/Arachnura_higginsi.xlsx
+++ b/biology/Zoologie/Arachnura_higginsi/Arachnura_higginsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arachnura higginsi est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arachnura higginsi est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans les États du Sud de l'île principale et en Tasmanie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans les États du Sud de l'île principale et en Tasmanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des araignées de couleur crème à marron, parfois un peu jaunêtre. Cette espèce présente un important dimorphisme sexuel, les femelles mesurent de 11 à 12 mm en moyenne et les mâles seulement de 2 à 3 mm[3],[4]. Les femelles ont l'abdomen prolongé par une longue queue à extrémité rougeâtre ou noirâtre qui, lorsqu'elle est relevée, leur confère une allure de scorpion. Les mâles, beaucoup plus petits, ont une queue très réduite voire absente.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des araignées de couleur crème à marron, parfois un peu jaunêtre. Cette espèce présente un important dimorphisme sexuel, les femelles mesurent de 11 à 12 mm en moyenne et les mâles seulement de 2 à 3 mm,. Les femelles ont l'abdomen prolongé par une longue queue à extrémité rougeâtre ou noirâtre qui, lorsqu'elle est relevée, leur confère une allure de scorpion. Les mâles, beaucoup plus petits, ont une queue très réduite voire absente.
 </t>
         </is>
       </c>
@@ -573,11 +589,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette araignée vit au centre de sa toile de forme orbiculaire accrochée dans un buisson, ou accrochée à un fil solide portant très souvent des débris de ses proies et parfois aussi un sac d'œufs.
-Reproduction
-La femelle produit jusqu'à huit sacs d'œufs jaunâtres qu'elle accroche à sa toile ou à un fil de soie, soit une soixantaine d'œufs mesurant chacun 0,8 mm de diamètre[2]. Ces sacs sont camouflés par la présence fréquentes des débris des insectes dont l'araignée s'est nourrie.
 </t>
         </is>
       </c>
@@ -603,10 +619,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Éthologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle produit jusqu'à huit sacs d'œufs jaunâtres qu'elle accroche à sa toile ou à un fil de soie, soit une soixantaine d'œufs mesurant chacun 0,8 mm de diamètre. Ces sacs sont camouflés par la présence fréquentes des débris des insectes dont l'araignée s'est nourrie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arachnura_higginsi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arachnura_higginsi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L. Koch, 1872 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 105-368 (texte intégral).</t>
         </is>
